--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>930700.1468708641</v>
+        <v>930035.3657894464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480302</v>
+        <v>362195.2019480296</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058535</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.94718012637679</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10.46022693027871</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562689</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312423</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>49.79374050860088</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
     </row>
     <row r="12">
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="T12" t="n">
-        <v>29.89614864769498</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="U12" t="n">
-        <v>98.9399064850179</v>
+        <v>39.45889979223917</v>
       </c>
       <c r="V12" t="n">
-        <v>40.2930637301202</v>
+        <v>40.29306373012039</v>
       </c>
       <c r="W12" t="n">
-        <v>98.9399064850179</v>
+        <v>66.34872639172974</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418856</v>
+        <v>16.95705725418875</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.9399064850179</v>
+        <v>23.02842894874377</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791061</v>
+        <v>2.83615885979126</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440328</v>
+        <v>34.98996300440348</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542032</v>
+        <v>23.38309022542052</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171393</v>
+        <v>88.30041113171413</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916785</v>
+        <v>44.75315799916805</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405328</v>
+        <v>89.95484990405348</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296048</v>
+        <v>21.56359822296068</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888637</v>
+        <v>16.78541562888657</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="C14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20.05487793325267</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562689</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312404</v>
+        <v>26.89230219312423</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.79374050860088</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>98.9399064850179</v>
+        <v>10.46022693027874</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.58710275765554</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="T15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458423</v>
+        <v>36.87179703458443</v>
       </c>
       <c r="V15" t="n">
-        <v>40.2930637301202</v>
+        <v>40.29306373012039</v>
       </c>
       <c r="W15" t="n">
-        <v>66.34872639172954</v>
+        <v>68.93582914938447</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418856</v>
+        <v>16.95705725418875</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874357</v>
+        <v>23.02842894874377</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791061</v>
+        <v>2.83615885979126</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440328</v>
+        <v>34.98996300440348</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542032</v>
+        <v>23.38309022542052</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171393</v>
+        <v>88.30041113171413</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916785</v>
+        <v>44.75315799916805</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405328</v>
+        <v>89.95484990405348</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296048</v>
+        <v>21.56359822296068</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888637</v>
+        <v>16.78541562888657</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260008</v>
+        <v>44.2403635126002</v>
       </c>
       <c r="C17" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594569</v>
       </c>
       <c r="D17" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776994131</v>
       </c>
       <c r="E17" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640302</v>
       </c>
       <c r="F17" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478035</v>
       </c>
       <c r="G17" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282771</v>
       </c>
       <c r="H17" t="n">
-        <v>17.0537007542836</v>
+        <v>17.05370075428372</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533759</v>
       </c>
       <c r="X17" t="n">
-        <v>29.93583742947288</v>
+        <v>29.935837429473</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.43869055321651</v>
+        <v>52.43869055321676</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>87.14626963200372</v>
+        <v>81.0825619217179</v>
       </c>
       <c r="U18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260008</v>
+        <v>44.2403635126002</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594569</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776994152</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640302</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478035</v>
       </c>
       <c r="G20" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282771</v>
       </c>
       <c r="H20" t="n">
-        <v>17.0537007542836</v>
+        <v>17.05370075428374</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533759</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947288</v>
+        <v>29.935837429473</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321676</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>87.14626963200379</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="V21" t="n">
-        <v>81.08256192171784</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260008</v>
+        <v>44.2403635126002</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594569</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776994152</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640302</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478035</v>
       </c>
       <c r="G23" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282774</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428374</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533759</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947288</v>
+        <v>29.935837429473</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321676</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>81.08256192171781</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,25 +2439,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="U24" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>87.14626963200408</v>
       </c>
       <c r="W24" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355654</v>
       </c>
       <c r="D26" t="n">
         <v>124.9114452966138</v>
@@ -2573,7 +2573,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529546</v>
+        <v>27.69423234529549</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279261</v>
+        <v>14.38744503279263</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423143</v>
+        <v>9.553523565423172</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826926</v>
+        <v>37.28888334826928</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635386</v>
       </c>
       <c r="W26" t="n">
         <v>125.0357494801534</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.7416911848362</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08476662097489</v>
+        <v>2.084766620974919</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276542198663</v>
+        <v>24.36693987425283</v>
       </c>
       <c r="V27" t="n">
-        <v>184.9324706428029</v>
+        <v>27.7882065697888</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.452200093857158</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841214</v>
+        <v>10.52357178841217</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407188</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U28" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062629053</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554943</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355654</v>
       </c>
       <c r="D29" t="n">
         <v>124.9114452966138</v>
@@ -2810,7 +2810,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529546</v>
+        <v>27.69423234529549</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279261</v>
+        <v>14.38744503279263</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423143</v>
+        <v>9.553523565423172</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826925</v>
+        <v>37.28888334826928</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635386</v>
       </c>
       <c r="W29" t="n">
         <v>125.0357494801534</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>131.9234991697358</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08476662097489</v>
+        <v>2.084766620974919</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276542198663</v>
+        <v>24.36693987425283</v>
       </c>
       <c r="V30" t="n">
-        <v>27.78820656978877</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139812</v>
+        <v>53.84386923139814</v>
       </c>
       <c r="X30" t="n">
-        <v>4.45220009385713</v>
+        <v>79.14737904103148</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.52357178841214</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407188</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U31" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062629053</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554943</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>137.3447830355654</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966139</v>
       </c>
       <c r="E32" t="n">
         <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352944001</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324475</v>
       </c>
       <c r="H32" t="n">
         <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529552</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279264</v>
+        <v>14.38744503279267</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423177</v>
+        <v>9.553523565423205</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826928</v>
+        <v>37.28888334826931</v>
       </c>
       <c r="V32" t="n">
         <v>108.0190692635386</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801535</v>
       </c>
       <c r="X32" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728365</v>
       </c>
     </row>
     <row r="33">
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.084766620974919</v>
+        <v>2.084766620974947</v>
       </c>
       <c r="U33" t="n">
-        <v>24.36693987425283</v>
+        <v>233.390008841957</v>
       </c>
       <c r="V33" t="n">
-        <v>27.7882065697888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.84386923139814</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>180.8093458254656</v>
+        <v>4.452200093857186</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841217</v>
+        <v>10.5235717884122</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407188</v>
+        <v>22.48510584407191</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508892</v>
+        <v>10.87823306508895</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138253</v>
+        <v>75.79555397138256</v>
       </c>
       <c r="V34" t="n">
-        <v>32.24830083883646</v>
+        <v>32.24830083883649</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372188</v>
+        <v>77.44999274372191</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629082</v>
+        <v>9.05874106262911</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468554972</v>
+        <v>4.280558468555</v>
       </c>
     </row>
     <row r="35">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.295373441504144</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>114.5202645200611</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W36" t="n">
         <v>26.14963688610263</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>133.5322936869244</v>
+        <v>133.5322936869243</v>
       </c>
       <c r="C38" t="n">
-        <v>109.6505506902699</v>
+        <v>109.6505506902698</v>
       </c>
       <c r="D38" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131829</v>
       </c>
       <c r="E38" t="n">
         <v>130.9239653707272</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973734</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824302</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485792</v>
+        <v>97.3415171348579</v>
       </c>
       <c r="X38" t="n">
-        <v>119.2277676037972</v>
+        <v>119.2277676037971</v>
       </c>
       <c r="Y38" t="n">
         <v>141.7306207275409</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>32.76865113936974</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>173.8634019076287</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449325177</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610263</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608699</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493540939</v>
+        <v>4.55406849354091</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842633</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.063707710285826</v>
       </c>
       <c r="R42" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>89.83104534909609</v>
+        <v>110.0589496143863</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09397422449333703</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>26.14963688610268</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>130.9239653707272</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6443029491046</v>
+        <v>162.6443029491039</v>
       </c>
       <c r="G44" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.063707710285826</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>193.7453053086944</v>
+        <v>133.8884077110116</v>
       </c>
       <c r="V45" t="n">
         <v>0.09397422449333703</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>248.3989323932082</v>
+        <v>18.48107830696173</v>
       </c>
       <c r="C11" t="n">
-        <v>248.3989323932082</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D11" t="n">
-        <v>248.3989323932082</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E11" t="n">
-        <v>248.3989323932082</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F11" t="n">
-        <v>148.4596329133921</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G11" t="n">
-        <v>48.52033343357605</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H11" t="n">
-        <v>48.52033343357605</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L11" t="n">
-        <v>56.47914923314351</v>
+        <v>101.2960017706252</v>
       </c>
       <c r="M11" t="n">
-        <v>154.4296566533112</v>
+        <v>184.2087205725255</v>
       </c>
       <c r="N11" t="n">
-        <v>252.380164073479</v>
+        <v>261.6206178302248</v>
       </c>
       <c r="O11" t="n">
-        <v>288.5686647631585</v>
+        <v>297.8091185199042</v>
       </c>
       <c r="P11" t="n">
-        <v>291.6558868311984</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513661</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="S11" t="n">
-        <v>395.7596259400716</v>
+        <v>368.5956843308556</v>
       </c>
       <c r="T11" t="n">
-        <v>395.7596259400716</v>
+        <v>368.5956843308556</v>
       </c>
       <c r="U11" t="n">
-        <v>395.7596259400716</v>
+        <v>318.2989767464103</v>
       </c>
       <c r="V11" t="n">
-        <v>395.7596259400716</v>
+        <v>218.3596772665941</v>
       </c>
       <c r="W11" t="n">
-        <v>395.7596259400716</v>
+        <v>218.3596772665941</v>
       </c>
       <c r="X11" t="n">
-        <v>395.7596259400716</v>
+        <v>118.4203777867779</v>
       </c>
       <c r="Y11" t="n">
-        <v>295.8203264602555</v>
+        <v>18.48107830696173</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K12" t="n">
-        <v>46.88760930735562</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L12" t="n">
-        <v>144.8381167275234</v>
+        <v>101.9081036795686</v>
       </c>
       <c r="M12" t="n">
-        <v>242.7886241476911</v>
+        <v>199.8586110997364</v>
       </c>
       <c r="N12" t="n">
-        <v>242.7886241476911</v>
+        <v>297.8091185199042</v>
       </c>
       <c r="O12" t="n">
-        <v>340.7391315678588</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="R12" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="S12" t="n">
-        <v>395.7596259400716</v>
+        <v>295.8203264602558</v>
       </c>
       <c r="T12" t="n">
-        <v>365.561495992905</v>
+        <v>195.8810269804397</v>
       </c>
       <c r="U12" t="n">
-        <v>265.6221965130889</v>
+        <v>156.0235524428243</v>
       </c>
       <c r="V12" t="n">
-        <v>224.9221321392301</v>
+        <v>115.3234880689653</v>
       </c>
       <c r="W12" t="n">
-        <v>124.982832659414</v>
+        <v>48.30457252176359</v>
       </c>
       <c r="X12" t="n">
-        <v>107.8544919986175</v>
+        <v>31.17623186096686</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H13" t="n">
-        <v>42.14791715790115</v>
+        <v>39.88856417385162</v>
       </c>
       <c r="I13" t="n">
-        <v>77.45332918377781</v>
+        <v>39.88856417385162</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45332918377781</v>
+        <v>39.88856417385162</v>
       </c>
       <c r="K13" t="n">
-        <v>77.45332918377781</v>
+        <v>39.88856417385162</v>
       </c>
       <c r="L13" t="n">
-        <v>175.4038366039455</v>
+        <v>137.8390715940195</v>
       </c>
       <c r="M13" t="n">
-        <v>175.4038366039455</v>
+        <v>235.7895790141873</v>
       </c>
       <c r="N13" t="n">
-        <v>175.4038366039455</v>
+        <v>235.7895790141873</v>
       </c>
       <c r="O13" t="n">
-        <v>273.3543440241133</v>
+        <v>235.7895790141873</v>
       </c>
       <c r="P13" t="n">
-        <v>273.3543440241133</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343535</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052717</v>
+        <v>330.8752795052731</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311269</v>
+        <v>295.5318825311281</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751468</v>
+        <v>271.9125994751478</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986681</v>
+        <v>182.7202649986689</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984985</v>
+        <v>137.5150548984992</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692956</v>
+        <v>46.65157014692997</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050484</v>
+        <v>24.87015780050504</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.6563848510393</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="C14" t="n">
-        <v>168.7170853712233</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="D14" t="n">
-        <v>168.7170853712233</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="E14" t="n">
-        <v>148.4596329133921</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="F14" t="n">
-        <v>48.52033343357607</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="G14" t="n">
-        <v>48.52033343357607</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357607</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J14" t="n">
-        <v>17.15564627554691</v>
+        <v>105.8656999389693</v>
       </c>
       <c r="K14" t="n">
-        <v>17.15564627554691</v>
+        <v>105.8656999389693</v>
       </c>
       <c r="L14" t="n">
-        <v>65.71960298988898</v>
+        <v>154.4296566533114</v>
       </c>
       <c r="M14" t="n">
-        <v>163.6701104100567</v>
+        <v>252.3801640734792</v>
       </c>
       <c r="N14" t="n">
-        <v>261.6206178302244</v>
+        <v>350.3306714936471</v>
       </c>
       <c r="O14" t="n">
-        <v>297.8091185199039</v>
+        <v>386.5191721833265</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8091185199039</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308554</v>
+        <v>368.5956843308556</v>
       </c>
       <c r="T14" t="n">
-        <v>368.5956843308554</v>
+        <v>368.5956843308556</v>
       </c>
       <c r="U14" t="n">
-        <v>368.5956843308554</v>
+        <v>318.2989767464103</v>
       </c>
       <c r="V14" t="n">
-        <v>368.5956843308554</v>
+        <v>218.3596772665941</v>
       </c>
       <c r="W14" t="n">
-        <v>368.5956843308554</v>
+        <v>218.3596772665941</v>
       </c>
       <c r="X14" t="n">
-        <v>268.6563848510393</v>
+        <v>207.7937914784338</v>
       </c>
       <c r="Y14" t="n">
-        <v>268.6563848510393</v>
+        <v>207.7937914784338</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K15" t="n">
-        <v>7.915192518801432</v>
+        <v>46.88760930735562</v>
       </c>
       <c r="L15" t="n">
-        <v>105.8656999389692</v>
+        <v>115.0401959957318</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0401959957316</v>
+        <v>212.9907034158997</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158997</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360671</v>
+        <v>310.9412108360675</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="R15" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="S15" t="n">
-        <v>395.7596259400716</v>
+        <v>295.8203264602558</v>
       </c>
       <c r="T15" t="n">
-        <v>295.8203264602555</v>
+        <v>195.8810269804397</v>
       </c>
       <c r="U15" t="n">
-        <v>258.5760870313825</v>
+        <v>158.6367875515665</v>
       </c>
       <c r="V15" t="n">
-        <v>217.8760226575237</v>
+        <v>117.9367231777075</v>
       </c>
       <c r="W15" t="n">
-        <v>150.8571071103222</v>
+        <v>48.30457252176359</v>
       </c>
       <c r="X15" t="n">
-        <v>133.7287664495257</v>
+        <v>31.17623186096686</v>
       </c>
       <c r="Y15" t="n">
-        <v>110.4677271073605</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801432</v>
+        <v>41.47488196997784</v>
       </c>
       <c r="D16" t="n">
-        <v>7.915192518801432</v>
+        <v>41.47488196997784</v>
       </c>
       <c r="E16" t="n">
-        <v>7.915192518801432</v>
+        <v>99.56780078330414</v>
       </c>
       <c r="F16" t="n">
-        <v>7.915192518801432</v>
+        <v>99.56780078330414</v>
       </c>
       <c r="G16" t="n">
-        <v>7.915192518801432</v>
+        <v>99.56780078330414</v>
       </c>
       <c r="H16" t="n">
-        <v>42.14791715790115</v>
+        <v>133.8005254224037</v>
       </c>
       <c r="I16" t="n">
-        <v>42.14791715790115</v>
+        <v>133.8005254224037</v>
       </c>
       <c r="J16" t="n">
-        <v>42.14791715790115</v>
+        <v>133.8005254224037</v>
       </c>
       <c r="K16" t="n">
-        <v>140.0984245780689</v>
+        <v>137.8390715940195</v>
       </c>
       <c r="L16" t="n">
-        <v>140.0984245780689</v>
+        <v>137.8390715940195</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7895790141858</v>
+        <v>235.7895790141873</v>
       </c>
       <c r="N16" t="n">
-        <v>235.7895790141858</v>
+        <v>235.7895790141873</v>
       </c>
       <c r="O16" t="n">
-        <v>235.7895790141858</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="P16" t="n">
-        <v>333.7400864343535</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343535</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052717</v>
+        <v>330.8752795052731</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311269</v>
+        <v>295.5318825311281</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751468</v>
+        <v>271.9125994751478</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986681</v>
+        <v>182.7202649986689</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984985</v>
+        <v>137.5150548984992</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692956</v>
+        <v>46.65157014692997</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050484</v>
+        <v>24.87015780050504</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271192</v>
+        <v>259.734900227119</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796994</v>
+        <v>239.170637079699</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413216</v>
+        <v>231.1653009413214</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368743</v>
+        <v>189.1127401368739</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037629</v>
+        <v>115.0194343037625</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666366</v>
+        <v>25.14115287666378</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L17" t="n">
-        <v>56.47914923314351</v>
+        <v>56.47914923314352</v>
       </c>
       <c r="M17" t="n">
         <v>139.3918680350438</v>
@@ -5531,34 +5531,34 @@
         <v>252.9922659824226</v>
       </c>
       <c r="P17" t="n">
-        <v>252.9922659824226</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.9922659824226</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="R17" t="n">
-        <v>252.9922659824226</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="S17" t="n">
-        <v>350.9427734025903</v>
+        <v>386.8822036165517</v>
       </c>
       <c r="T17" t="n">
-        <v>386.8822036165512</v>
+        <v>386.8822036165517</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165512</v>
+        <v>386.8822036165517</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203407</v>
+        <v>387.628730020341</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946107</v>
+        <v>357.3905103946109</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984324</v>
+        <v>304.4221360984323</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C18" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D18" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K18" t="n">
-        <v>46.88760930735562</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L18" t="n">
-        <v>144.8381167275234</v>
+        <v>105.8656999389693</v>
       </c>
       <c r="M18" t="n">
-        <v>242.7886241476911</v>
+        <v>203.8162073591371</v>
       </c>
       <c r="N18" t="n">
-        <v>242.7886241476911</v>
+        <v>212.9907034158997</v>
       </c>
       <c r="O18" t="n">
-        <v>340.7391315678588</v>
+        <v>310.9412108360675</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.7596259400716</v>
+        <v>389.634668656955</v>
       </c>
       <c r="R18" t="n">
-        <v>395.7596259400716</v>
+        <v>289.6953691771388</v>
       </c>
       <c r="S18" t="n">
-        <v>395.7596259400716</v>
+        <v>289.6953691771388</v>
       </c>
       <c r="T18" t="n">
-        <v>307.7330909582496</v>
+        <v>207.7937914784338</v>
       </c>
       <c r="U18" t="n">
-        <v>207.7937914784336</v>
+        <v>107.8544919986176</v>
       </c>
       <c r="V18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="W18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="X18" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>259.7349002271189</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796993</v>
+        <v>239.1706370796991</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413214</v>
+        <v>231.1653009413212</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368741</v>
+        <v>189.1127401368737</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037628</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666366</v>
+        <v>25.1411528766638</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L20" t="n">
-        <v>56.47914923314351</v>
+        <v>56.47914923314352</v>
       </c>
       <c r="M20" t="n">
-        <v>154.4296566533112</v>
+        <v>154.4296566533114</v>
       </c>
       <c r="N20" t="n">
-        <v>252.380164073479</v>
+        <v>231.8415539110107</v>
       </c>
       <c r="O20" t="n">
-        <v>297.8091185199039</v>
+        <v>268.0300546006902</v>
       </c>
       <c r="P20" t="n">
-        <v>297.8091185199039</v>
+        <v>288.9316961963839</v>
       </c>
       <c r="Q20" t="n">
-        <v>297.8091185199039</v>
+        <v>288.9316961963839</v>
       </c>
       <c r="R20" t="n">
-        <v>297.8091185199039</v>
+        <v>288.9316961963839</v>
       </c>
       <c r="S20" t="n">
-        <v>395.7596259400716</v>
+        <v>386.8822036165517</v>
       </c>
       <c r="T20" t="n">
-        <v>395.7596259400716</v>
+        <v>386.8822036165517</v>
       </c>
       <c r="U20" t="n">
-        <v>395.7596259400716</v>
+        <v>386.8822036165517</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203408</v>
+        <v>387.6287300203411</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946106</v>
+        <v>357.3905103946108</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984321</v>
+        <v>304.4221360984322</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.8544919986175</v>
+        <v>95.94172750062347</v>
       </c>
       <c r="C21" t="n">
-        <v>107.8544919986175</v>
+        <v>95.94172750062347</v>
       </c>
       <c r="D21" t="n">
-        <v>107.8544919986175</v>
+        <v>95.94172750062347</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K21" t="n">
-        <v>7.915192518801432</v>
+        <v>46.88760930735562</v>
       </c>
       <c r="L21" t="n">
-        <v>105.8656999389692</v>
+        <v>46.88760930735562</v>
       </c>
       <c r="M21" t="n">
-        <v>203.8162073591369</v>
+        <v>115.0401959957318</v>
       </c>
       <c r="N21" t="n">
-        <v>297.8091185199039</v>
+        <v>212.9907034158997</v>
       </c>
       <c r="O21" t="n">
-        <v>395.7596259400716</v>
+        <v>310.9412108360675</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569545</v>
+        <v>295.8203264602558</v>
       </c>
       <c r="S21" t="n">
-        <v>389.6346686569545</v>
+        <v>295.8203264602558</v>
       </c>
       <c r="T21" t="n">
-        <v>389.6346686569545</v>
+        <v>295.8203264602558</v>
       </c>
       <c r="U21" t="n">
-        <v>389.6346686569545</v>
+        <v>195.8810269804397</v>
       </c>
       <c r="V21" t="n">
-        <v>307.7330909582496</v>
+        <v>195.8810269804397</v>
       </c>
       <c r="W21" t="n">
-        <v>207.7937914784336</v>
+        <v>195.8810269804397</v>
       </c>
       <c r="X21" t="n">
-        <v>107.8544919986175</v>
+        <v>195.8810269804397</v>
       </c>
       <c r="Y21" t="n">
-        <v>107.8544919986175</v>
+        <v>95.94172750062347</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271188</v>
+        <v>259.7349002271201</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796991</v>
+        <v>239.1706370797001</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413214</v>
+        <v>231.1653009413222</v>
       </c>
       <c r="E23" t="n">
-        <v>189.112740136874</v>
+        <v>189.1127401368747</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037624</v>
+        <v>115.0194343037633</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666368</v>
+        <v>25.14115287666383</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="J23" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="K23" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="L23" t="n">
-        <v>56.47914923314351</v>
+        <v>56.47914923314354</v>
       </c>
       <c r="M23" t="n">
         <v>139.3918680350438</v>
       </c>
       <c r="N23" t="n">
-        <v>216.8037652927431</v>
+        <v>216.8037652927432</v>
       </c>
       <c r="O23" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199052</v>
       </c>
       <c r="P23" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199052</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199052</v>
       </c>
       <c r="R23" t="n">
-        <v>297.8091185199039</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="S23" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="T23" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="U23" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203408</v>
+        <v>387.6287300203423</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946106</v>
+        <v>357.390510394612</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984334</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.7560696973224</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="C24" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="D24" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="E24" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="F24" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="G24" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="K24" t="n">
-        <v>46.88760930735562</v>
+        <v>46.88760930735565</v>
       </c>
       <c r="L24" t="n">
-        <v>46.88760930735562</v>
+        <v>46.88760930735565</v>
       </c>
       <c r="M24" t="n">
-        <v>144.8381167275234</v>
+        <v>144.8381167275238</v>
       </c>
       <c r="N24" t="n">
-        <v>242.7886241476911</v>
+        <v>242.7886241476919</v>
       </c>
       <c r="O24" t="n">
-        <v>340.7391315678588</v>
+        <v>310.9412108360686</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400732</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569545</v>
+        <v>295.8203264602568</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569545</v>
+        <v>195.8810269804403</v>
       </c>
       <c r="T24" t="n">
-        <v>389.6346686569545</v>
+        <v>95.94172750062377</v>
       </c>
       <c r="U24" t="n">
-        <v>289.6953691771384</v>
+        <v>95.94172750062377</v>
       </c>
       <c r="V24" t="n">
-        <v>289.6953691771384</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="W24" t="n">
-        <v>189.7560696973224</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="X24" t="n">
-        <v>189.7560696973224</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.7560696973224</v>
+        <v>7.915192518801465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801465</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907657</v>
+        <v>886.1595461907651</v>
       </c>
       <c r="D26" t="n">
-        <v>759.986369123479</v>
+        <v>759.9863691234784</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901228</v>
+        <v>599.7659673901221</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281025</v>
+        <v>407.5048206281017</v>
       </c>
       <c r="G26" t="n">
         <v>199.4586982720948</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532367</v>
+        <v>64.06489698532371</v>
       </c>
       <c r="I26" t="n">
         <v>36.09092491936866</v>
@@ -6227,46 +6227,46 @@
         <v>171.8005131365275</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511678</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931582</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.363879823419</v>
       </c>
       <c r="P26" t="n">
         <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
         <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T26" t="n">
         <v>1780.363449404579</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.746727067316</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.49375814632853</v>
+        <v>141.8906129848597</v>
       </c>
       <c r="C27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J27" t="n">
         <v>36.09092491936866</v>
@@ -6324,31 +6324,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R27" t="n">
-        <v>801.5495631391819</v>
+        <v>659.7398684615903</v>
       </c>
       <c r="S27" t="n">
-        <v>801.5495631391819</v>
+        <v>659.7398684615903</v>
       </c>
       <c r="T27" t="n">
-        <v>799.4437382695104</v>
+        <v>657.6340435919186</v>
       </c>
       <c r="U27" t="n">
-        <v>559.8198451181303</v>
+        <v>633.0209730118653</v>
       </c>
       <c r="V27" t="n">
-        <v>373.0193697213597</v>
+        <v>604.9520774868261</v>
       </c>
       <c r="W27" t="n">
-        <v>318.6316230229777</v>
+        <v>335.5535082171174</v>
       </c>
       <c r="X27" t="n">
-        <v>99.12362863967412</v>
+        <v>331.0563364051404</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.49375814632853</v>
+        <v>320.4264659117948</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>36.09092491936866</v>
       </c>
       <c r="E28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K28" t="n">
-        <v>90.95212056564904</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L28" t="n">
-        <v>270.6328299641015</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M28" t="n">
-        <v>270.6328299641015</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="N28" t="n">
-        <v>270.6328299641015</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="O28" t="n">
-        <v>270.6328299641015</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387764</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316159</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039568</v>
+        <v>160.3713220039569</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526069</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985755</v>
+        <v>49.5649648498576</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225244</v>
+        <v>40.41472135225247</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09092491936866</v>
@@ -6440,40 +6440,40 @@
         <v>1024.891650267095</v>
       </c>
       <c r="C29" t="n">
-        <v>886.159546190766</v>
+        <v>886.1595461907659</v>
       </c>
       <c r="D29" t="n">
         <v>759.9863691234793</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901231</v>
+        <v>599.765967390123</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281029</v>
+        <v>407.5048206281026</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720955</v>
+        <v>199.4586982720949</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532414</v>
+        <v>64.06489698532373</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365284</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511686</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L29" t="n">
-        <v>636.654441467668</v>
+        <v>636.6544414676682</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717254</v>
+        <v>930.2992674717259</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931583</v>
       </c>
       <c r="O29" t="n">
         <v>1465.363879823419</v>
@@ -6482,19 +6482,19 @@
         <v>1662.834462498259</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205691001</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968435</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208038</v>
       </c>
       <c r="T29" t="n">
         <v>1780.36344940458</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668955</v>
       </c>
       <c r="V29" t="n">
         <v>1633.587739695683</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.5753503793346</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="C30" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="D30" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="E30" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="F30" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792287</v>
       </c>
       <c r="L30" t="n">
         <v>193.7531079096929</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0131310500093</v>
+        <v>377.0131310500094</v>
       </c>
       <c r="N30" t="n">
         <v>583.5433912625119</v>
@@ -6561,31 +6561,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.4246058560649</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="R30" t="n">
-        <v>795.4246058560649</v>
+        <v>665.8648257447073</v>
       </c>
       <c r="S30" t="n">
-        <v>795.4246058560649</v>
+        <v>665.8648257447073</v>
       </c>
       <c r="T30" t="n">
-        <v>793.3187809863933</v>
+        <v>663.7590008750357</v>
       </c>
       <c r="U30" t="n">
-        <v>553.6948878350132</v>
+        <v>639.1459302949823</v>
       </c>
       <c r="V30" t="n">
-        <v>525.6259923099741</v>
+        <v>396.0662121986164</v>
       </c>
       <c r="W30" t="n">
-        <v>471.2382456115922</v>
+        <v>341.6784655002344</v>
       </c>
       <c r="X30" t="n">
-        <v>466.7410737996153</v>
+        <v>261.731617984041</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.1112033062697</v>
+        <v>36.09092491936869</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="H31" t="n">
-        <v>82.70345814719653</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="I31" t="n">
-        <v>130.3886787618013</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3886787618013</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="K31" t="n">
-        <v>130.3886787618013</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="L31" t="n">
-        <v>130.3886787618013</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="M31" t="n">
-        <v>130.3886787618013</v>
+        <v>185.4068418807069</v>
       </c>
       <c r="N31" t="n">
-        <v>270.6328299641016</v>
+        <v>185.4068418807069</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6328299641016</v>
+        <v>185.4068418807069</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641016</v>
+        <v>185.4068418807069</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387765</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T31" t="n">
-        <v>236.932487631616</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039569</v>
+        <v>160.371322003957</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7972807526069</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985757</v>
+        <v>49.56496484985763</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225246</v>
+        <v>40.4147213522525</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1024.891650267095</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907656</v>
+        <v>886.1595461907657</v>
       </c>
       <c r="D32" t="n">
         <v>759.9863691234789</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901226</v>
+        <v>599.7659673901223</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281023</v>
+        <v>407.5048206281019</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720948</v>
+        <v>199.4586982720944</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532373</v>
+        <v>64.06489698532376</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8005131365282</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511684</v>
+        <v>377.3583775511676</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676678</v>
+        <v>636.654441467667</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717254</v>
+        <v>930.2992674717261</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931583</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.36387982342</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.83446249826</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205691001</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968435</v>
       </c>
       <c r="S32" t="n">
         <v>1790.013473208037</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>357.2987574410928</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="C33" t="n">
-        <v>357.2987574410928</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792287</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0131310500093</v>
+        <v>377.0131310500094</v>
       </c>
       <c r="N33" t="n">
         <v>583.5433912625119</v>
@@ -6798,31 +6798,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.4246058560649</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="R33" t="n">
-        <v>659.7398684615903</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="S33" t="n">
-        <v>659.7398684615903</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="T33" t="n">
-        <v>657.6340435919186</v>
+        <v>799.4437382695103</v>
       </c>
       <c r="U33" t="n">
-        <v>633.0209730118653</v>
+        <v>563.6962545907659</v>
       </c>
       <c r="V33" t="n">
-        <v>604.9520774868261</v>
+        <v>320.6165364944</v>
       </c>
       <c r="W33" t="n">
-        <v>550.5643307884441</v>
+        <v>51.2179672246913</v>
       </c>
       <c r="X33" t="n">
-        <v>367.9286279344385</v>
+        <v>46.72079541271435</v>
       </c>
       <c r="Y33" t="n">
-        <v>357.2987574410928</v>
+        <v>36.09092491936869</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="L34" t="n">
-        <v>75.45396469873543</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="M34" t="n">
-        <v>75.45396469873543</v>
+        <v>36.09092491936869</v>
       </c>
       <c r="N34" t="n">
-        <v>270.6328299641017</v>
+        <v>86.69229409246103</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6328299641017</v>
+        <v>261.060818646567</v>
       </c>
       <c r="P34" t="n">
-        <v>270.6328299641017</v>
+        <v>261.060818646567</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.6328299641017</v>
+        <v>261.060818646567</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641017</v>
+        <v>270.632829964102</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387766</v>
+        <v>247.9206018387768</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316161</v>
+        <v>236.9324876316163</v>
       </c>
       <c r="U34" t="n">
-        <v>160.371322003957</v>
+        <v>160.3713220039571</v>
       </c>
       <c r="V34" t="n">
-        <v>127.797280752607</v>
+        <v>127.7972807526071</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985762</v>
+        <v>49.56496484985769</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225249</v>
+        <v>40.41472135225253</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936869</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>821.1586532866081</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762341</v>
+        <v>710.4005212762347</v>
       </c>
       <c r="D35" t="n">
-        <v>612.2013162749025</v>
+        <v>612.2013162749029</v>
       </c>
       <c r="E35" t="n">
         <v>479.9548866075013</v>
@@ -6935,34 +6935,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J35" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K35" t="n">
-        <v>261.15088683705</v>
+        <v>424.2777650760514</v>
       </c>
       <c r="L35" t="n">
-        <v>309.7148435513921</v>
+        <v>472.8417217903934</v>
       </c>
       <c r="M35" t="n">
-        <v>630.7769595772922</v>
+        <v>793.9038378162936</v>
       </c>
       <c r="N35" t="n">
-        <v>708.1888568349916</v>
+        <v>871.315735073993</v>
       </c>
       <c r="O35" t="n">
-        <v>982.526754748671</v>
+        <v>987.3523838178197</v>
       </c>
       <c r="P35" t="n">
-        <v>1207.414627445354</v>
+        <v>1212.240256514502</v>
       </c>
       <c r="Q35" t="n">
-        <v>1358.010660659938</v>
+        <v>1362.836289729086</v>
       </c>
       <c r="R35" t="n">
-        <v>1403.960990959214</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="S35" t="n">
-        <v>1403.960990959214</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
@@ -6980,7 +6980,7 @@
         <v>1099.202001180008</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208753</v>
+        <v>956.0397580208752</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>188.9558486395355</v>
+        <v>220.9166667095269</v>
       </c>
       <c r="C36" t="n">
-        <v>188.9558486395355</v>
+        <v>31.50439244249063</v>
       </c>
       <c r="D36" t="n">
-        <v>28.17573240056725</v>
+        <v>31.50439244249063</v>
       </c>
       <c r="E36" t="n">
         <v>28.17573240056725</v>
@@ -7038,28 +7038,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="R36" t="n">
-        <v>677.9573357516319</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="S36" t="n">
-        <v>677.9573357516319</v>
+        <v>464.5420122420363</v>
       </c>
       <c r="T36" t="n">
-        <v>677.9573357516319</v>
+        <v>247.4253648010379</v>
       </c>
       <c r="U36" t="n">
-        <v>677.9573357516319</v>
+        <v>247.4253648010379</v>
       </c>
       <c r="V36" t="n">
-        <v>434.877617655266</v>
+        <v>247.3304413419538</v>
       </c>
       <c r="W36" t="n">
-        <v>408.4638430228391</v>
+        <v>220.9166667095269</v>
       </c>
       <c r="X36" t="n">
-        <v>188.9558486395355</v>
+        <v>220.9166667095269</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.9558486395355</v>
+        <v>220.9166667095269</v>
       </c>
     </row>
     <row r="37">
@@ -7075,52 +7075,52 @@
         <v>28.17573240056725</v>
       </c>
       <c r="D37" t="n">
-        <v>94.632037645083</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="F37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="G37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="H37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="I37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="J37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="K37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="L37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="M37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="N37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="O37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="P37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.632037645083</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844605</v>
+        <v>114.973499697056</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844605</v>
+        <v>114.973499697056</v>
       </c>
       <c r="T37" t="n">
         <v>131.6213389844605</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866078</v>
+        <v>821.1586532866072</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762341</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749025</v>
+        <v>612.2013162749022</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075013</v>
+        <v>479.9548866075011</v>
       </c>
       <c r="F38" t="n">
         <v>315.6677119114361</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213837</v>
       </c>
       <c r="H38" t="n">
         <v>28.17573240056725</v>
@@ -7172,28 +7172,28 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J38" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395687</v>
       </c>
       <c r="K38" t="n">
-        <v>261.15088683705</v>
+        <v>424.2777650760514</v>
       </c>
       <c r="L38" t="n">
-        <v>547.864240775392</v>
+        <v>508.2953241857718</v>
       </c>
       <c r="M38" t="n">
-        <v>868.9263568012921</v>
+        <v>591.2080429876721</v>
       </c>
       <c r="N38" t="n">
-        <v>1184.487651282991</v>
+        <v>906.7693374693713</v>
       </c>
       <c r="O38" t="n">
-        <v>1377.653598896911</v>
+        <v>1181.107235383051</v>
       </c>
       <c r="P38" t="n">
-        <v>1377.653598896911</v>
+        <v>1181.107235383051</v>
       </c>
       <c r="Q38" t="n">
-        <v>1377.653598896911</v>
+        <v>1331.703268597635</v>
       </c>
       <c r="R38" t="n">
         <v>1377.653598896911</v>
@@ -7208,16 +7208,16 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W38" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X38" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208748</v>
+        <v>956.0397580208742</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.17573240056725</v>
+        <v>61.27538001609224</v>
       </c>
       <c r="C39" t="n">
         <v>28.17573240056725</v>
@@ -7275,28 +7275,28 @@
         <v>787.5094133372635</v>
       </c>
       <c r="R39" t="n">
-        <v>651.8246759427889</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="S39" t="n">
-        <v>476.2050780562952</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="T39" t="n">
-        <v>476.2050780562952</v>
+        <v>570.3927658962651</v>
       </c>
       <c r="U39" t="n">
-        <v>476.2050780562952</v>
+        <v>330.768872744885</v>
       </c>
       <c r="V39" t="n">
-        <v>233.1253599599293</v>
+        <v>330.6739492858009</v>
       </c>
       <c r="W39" t="n">
-        <v>206.7115853275023</v>
+        <v>61.27538001609224</v>
       </c>
       <c r="X39" t="n">
-        <v>206.7115853275023</v>
+        <v>61.27538001609224</v>
       </c>
       <c r="Y39" t="n">
-        <v>206.7115853275023</v>
+        <v>61.27538001609224</v>
       </c>
     </row>
     <row r="40">
@@ -7339,34 +7339,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="M40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="O40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="P40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="S40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="T40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275638</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736152</v>
       </c>
       <c r="W40" t="n">
         <v>28.17573240056725</v>
@@ -7412,31 +7412,31 @@
         <v>28.17573240056726</v>
       </c>
       <c r="K41" t="n">
-        <v>261.15088683705</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L41" t="n">
-        <v>547.864240775392</v>
+        <v>314.8890863389092</v>
       </c>
       <c r="M41" t="n">
-        <v>832.1489521603014</v>
+        <v>635.9512023648094</v>
       </c>
       <c r="N41" t="n">
-        <v>909.5608494180008</v>
+        <v>741.0055145113432</v>
       </c>
       <c r="O41" t="n">
-        <v>1183.89874733168</v>
+        <v>1015.343412425023</v>
       </c>
       <c r="P41" t="n">
-        <v>1408.786620028363</v>
+        <v>1240.231285121705</v>
       </c>
       <c r="Q41" t="n">
-        <v>1408.786620028363</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.786620028363</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.786620028363</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="T41" t="n">
         <v>1408.786620028363</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.1666525619087</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C42" t="n">
-        <v>362.1666525619087</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D42" t="n">
-        <v>362.1666525619087</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E42" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F42" t="n">
         <v>28.17573240056726</v>
@@ -7509,31 +7509,31 @@
         <v>793.634370620381</v>
       </c>
       <c r="Q42" t="n">
-        <v>793.634370620381</v>
+        <v>787.509413337264</v>
       </c>
       <c r="R42" t="n">
-        <v>657.9496332259065</v>
+        <v>651.8246759427896</v>
       </c>
       <c r="S42" t="n">
-        <v>567.2112035803549</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="T42" t="n">
-        <v>567.2112035803549</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="U42" t="n">
-        <v>567.2112035803549</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="V42" t="n">
-        <v>567.1162801212707</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W42" t="n">
-        <v>540.7025054888438</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X42" t="n">
-        <v>540.7025054888438</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y42" t="n">
-        <v>540.7025054888438</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="43">
@@ -7561,28 +7561,28 @@
         <v>28.17573240056726</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="M43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="N43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="O43" t="n">
-        <v>102.2055556502376</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="P43" t="n">
         <v>131.6213389844607</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866073</v>
+        <v>821.1586532866075</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762338</v>
       </c>
       <c r="D44" t="n">
-        <v>612.2013162749018</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075006</v>
+        <v>479.9548866075004</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114354</v>
+        <v>315.6677119114358</v>
       </c>
       <c r="G44" t="n">
         <v>135.5955616213834</v>
@@ -7646,34 +7646,34 @@
         <v>28.17573240056726</v>
       </c>
       <c r="J44" t="n">
-        <v>28.17573240056726</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K44" t="n">
-        <v>261.15088683705</v>
+        <v>424.2777650760514</v>
       </c>
       <c r="L44" t="n">
-        <v>547.864240775392</v>
+        <v>710.9911190143933</v>
       </c>
       <c r="M44" t="n">
-        <v>663.5936172536439</v>
+        <v>1032.053235040294</v>
       </c>
       <c r="N44" t="n">
-        <v>741.0055145113432</v>
+        <v>1109.465132297993</v>
       </c>
       <c r="O44" t="n">
-        <v>1015.343412425023</v>
+        <v>1199.066537075125</v>
       </c>
       <c r="P44" t="n">
-        <v>1240.231285121705</v>
+        <v>1199.066537075125</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.827318336289</v>
+        <v>1349.662570289709</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.827318336289</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="T44" t="n">
         <v>1408.786620028363</v>
@@ -7691,7 +7691,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208744</v>
+        <v>956.0397580208746</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>378.0157229503594</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C45" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D45" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E45" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F45" t="n">
         <v>28.17573240056726</v>
@@ -7746,31 +7746,31 @@
         <v>793.634370620381</v>
       </c>
       <c r="Q45" t="n">
-        <v>793.634370620381</v>
+        <v>787.509413337264</v>
       </c>
       <c r="R45" t="n">
-        <v>793.634370620381</v>
+        <v>787.509413337264</v>
       </c>
       <c r="S45" t="n">
-        <v>600.2267496365114</v>
+        <v>594.1017923533946</v>
       </c>
       <c r="T45" t="n">
-        <v>600.2267496365114</v>
+        <v>594.1017923533946</v>
       </c>
       <c r="U45" t="n">
-        <v>404.5244210418705</v>
+        <v>458.8609764836858</v>
       </c>
       <c r="V45" t="n">
-        <v>404.4294975827864</v>
+        <v>458.7660530246017</v>
       </c>
       <c r="W45" t="n">
-        <v>378.0157229503594</v>
+        <v>432.3522783921747</v>
       </c>
       <c r="X45" t="n">
-        <v>378.0157229503594</v>
+        <v>432.3522783921747</v>
       </c>
       <c r="Y45" t="n">
-        <v>378.0157229503594</v>
+        <v>206.7115853275023</v>
       </c>
     </row>
     <row r="46">
@@ -7792,46 +7792,46 @@
         <v>28.17573240056726</v>
       </c>
       <c r="F46" t="n">
-        <v>28.17573240056726</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="G46" t="n">
-        <v>28.17573240056726</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17573240056726</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17573240056726</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="J46" t="n">
-        <v>28.17573240056726</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="K46" t="n">
-        <v>28.17573240056726</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="L46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="M46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="N46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="O46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="P46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="R46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="S46" t="n">
-        <v>114.9734996970562</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="T46" t="n">
         <v>131.6213389844607</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125988</v>
+        <v>215.3582255334063</v>
       </c>
       <c r="M12" t="n">
-        <v>215.6056533098497</v>
+        <v>215.6056533098498</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9974341175494</v>
+        <v>200.9373406025674</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271817</v>
       </c>
       <c r="P12" t="n">
-        <v>176.2649642485866</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125988</v>
+        <v>189.2568876825064</v>
       </c>
       <c r="M15" t="n">
-        <v>125.9329145589353</v>
+        <v>215.6056533098498</v>
       </c>
       <c r="N15" t="n">
-        <v>200.9373406025673</v>
+        <v>101.9974341175494</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271817</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125988</v>
+        <v>219.3557975125989</v>
       </c>
       <c r="M18" t="n">
-        <v>215.6056533098497</v>
+        <v>215.6056533098498</v>
       </c>
       <c r="N18" t="n">
-        <v>101.9974341175494</v>
+        <v>111.264601851653</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271817</v>
       </c>
       <c r="P18" t="n">
-        <v>176.2649642485866</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>219.3557975125988</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098497</v>
+        <v>185.5067434797572</v>
       </c>
       <c r="N21" t="n">
-        <v>196.9397686233747</v>
+        <v>200.9373406025674</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271817</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6887073069575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9723,16 +9723,16 @@
         <v>120.4158910275809</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098497</v>
+        <v>215.6056533098501</v>
       </c>
       <c r="N24" t="n">
-        <v>200.9373406025673</v>
+        <v>200.9373406025677</v>
       </c>
       <c r="O24" t="n">
-        <v>219.6296017271816</v>
+        <v>189.5306918970897</v>
       </c>
       <c r="P24" t="n">
-        <v>176.2649642485866</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>126.7842030661745</v>
+        <v>173.7313831925515</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958968</v>
+        <v>139.3894132656183</v>
       </c>
       <c r="D11" t="n">
-        <v>137.4163024569452</v>
+        <v>137.4163024569454</v>
       </c>
       <c r="E11" t="n">
-        <v>171.1230548763541</v>
+        <v>171.1230548763543</v>
       </c>
       <c r="F11" t="n">
-        <v>103.9034859697135</v>
+        <v>202.8433924547316</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5306118077609</v>
+        <v>218.470518292779</v>
       </c>
       <c r="H11" t="n">
-        <v>146.5447204342348</v>
+        <v>146.544720434235</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.19908950562709</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575457</v>
+        <v>22.05838072575477</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860068</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>120.52392642387</v>
+        <v>21.58401993885215</v>
       </c>
       <c r="W11" t="n">
-        <v>137.5406066404848</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094241</v>
+        <v>60.48695062440626</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.98980374814994</v>
+        <v>82.98980374815002</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925513</v>
+        <v>74.79147670753346</v>
       </c>
       <c r="C14" t="n">
-        <v>50.90973371087887</v>
+        <v>149.849640195897</v>
       </c>
       <c r="D14" t="n">
-        <v>137.4163024569452</v>
+        <v>137.4163024569454</v>
       </c>
       <c r="E14" t="n">
-        <v>151.0681769431014</v>
+        <v>171.1230548763543</v>
       </c>
       <c r="F14" t="n">
-        <v>103.9034859697135</v>
+        <v>202.8433924547316</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4705182927788</v>
+        <v>218.470518292779</v>
       </c>
       <c r="H14" t="n">
-        <v>146.5447204342348</v>
+        <v>47.60481394921698</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.19908950562706</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575457</v>
+        <v>22.05838072575477</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860068</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.52392642387</v>
+        <v>21.58401993885215</v>
       </c>
       <c r="W14" t="n">
-        <v>137.5406066404848</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X14" t="n">
-        <v>60.48695062440618</v>
+        <v>148.9666301791455</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.9297102331678</v>
+        <v>181.929710233168</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>865672.2293405116</v>
+        <v>865672.2293405113</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>865672.2293405116</v>
+        <v>865672.2293405114</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>639400.6965029334</v>
+      </c>
+      <c r="C2" t="n">
         <v>639400.6965029333</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>639400.6965029332</v>
       </c>
-      <c r="D2" t="n">
-        <v>639400.696502933</v>
-      </c>
       <c r="E2" t="n">
-        <v>550992.8145398478</v>
+        <v>550992.8145398477</v>
       </c>
       <c r="F2" t="n">
-        <v>550992.814539848</v>
+        <v>550992.8145398477</v>
       </c>
       <c r="G2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.9479224384</v>
       </c>
       <c r="H2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.9479224384</v>
       </c>
       <c r="I2" t="n">
-        <v>640695.9479224382</v>
+        <v>640695.9479224384</v>
       </c>
       <c r="J2" t="n">
-        <v>640695.9479224386</v>
+        <v>640695.947922439</v>
       </c>
       <c r="K2" t="n">
-        <v>640695.947922439</v>
+        <v>640695.9479224388</v>
       </c>
       <c r="L2" t="n">
-        <v>640695.947922439</v>
+        <v>640695.9479224388</v>
       </c>
       <c r="M2" t="n">
         <v>640695.9479224386</v>
       </c>
       <c r="N2" t="n">
-        <v>640695.9479224384</v>
+        <v>640695.9479224385</v>
       </c>
       <c r="O2" t="n">
-        <v>640695.9479224384</v>
+        <v>640695.947922438</v>
       </c>
       <c r="P2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.9479224386</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.0445868052</v>
+        <v>273465.044586805</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103592.8157439609</v>
+        <v>103592.815743961</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.897335205</v>
+        <v>158845.8973352048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103592.8157439609</v>
+        <v>103592.815743961</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623641</v>
+        <v>22155.38587623644</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.7557325298</v>
+        <v>66695.75573252967</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>467253.6573030353</v>
       </c>
       <c r="E4" t="n">
-        <v>361182.2424006845</v>
+        <v>361182.2424006843</v>
       </c>
       <c r="F4" t="n">
-        <v>361182.2424006845</v>
+        <v>361182.2424006843</v>
       </c>
       <c r="G4" t="n">
         <v>431700.8089139007</v>
@@ -26439,7 +26439,7 @@
         <v>431700.8089139007</v>
       </c>
       <c r="J4" t="n">
-        <v>430647.4817506726</v>
+        <v>430647.4817506725</v>
       </c>
       <c r="K4" t="n">
         <v>430647.4817506726</v>
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439979</v>
+        <v>25128.77385439978</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439979</v>
+        <v>25128.77385439978</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.95438787362</v>
       </c>
       <c r="J5" t="n">
         <v>47593.60131544279</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544281</v>
       </c>
       <c r="L5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544281</v>
       </c>
       <c r="M5" t="n">
         <v>43906.28142019036</v>
       </c>
       <c r="N5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019037</v>
       </c>
       <c r="O5" t="n">
         <v>43906.28142019036</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138519.439199898</v>
+        <v>138514.9728156929</v>
       </c>
       <c r="C6" t="n">
-        <v>138519.4391998978</v>
+        <v>138514.9728156928</v>
       </c>
       <c r="D6" t="n">
-        <v>138519.4391998978</v>
+        <v>138514.9728156927</v>
       </c>
       <c r="E6" t="n">
-        <v>-108783.2463020417</v>
+        <v>-109092.5674516366</v>
       </c>
       <c r="F6" t="n">
-        <v>164681.7982847638</v>
+        <v>164372.4771351685</v>
       </c>
       <c r="G6" t="n">
-        <v>69387.368876703</v>
+        <v>69387.36887670301</v>
       </c>
       <c r="H6" t="n">
-        <v>172980.1846206639</v>
+        <v>172980.184620664</v>
       </c>
       <c r="I6" t="n">
-        <v>172980.1846206638</v>
+        <v>172980.184620664</v>
       </c>
       <c r="J6" t="n">
-        <v>3608.967521118211</v>
+        <v>3608.96752111891</v>
       </c>
       <c r="K6" t="n">
         <v>162454.8648563235</v>
       </c>
       <c r="L6" t="n">
-        <v>58862.04911236269</v>
+        <v>58862.04911236245</v>
       </c>
       <c r="M6" t="n">
-        <v>144428.6390912259</v>
+        <v>144428.6390912258</v>
       </c>
       <c r="N6" t="n">
-        <v>166584.0249674621</v>
+        <v>166584.0249674622</v>
       </c>
       <c r="O6" t="n">
-        <v>99888.26923493238</v>
+        <v>99888.26923493209</v>
       </c>
       <c r="P6" t="n">
-        <v>166584.0249674621</v>
+        <v>166584.0249674623</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="L2" t="n">
         <v>212.8607143456134</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="F4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="G4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="H4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="I4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="J4" t="n">
         <v>451.1365614921083</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921086</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921086</v>
       </c>
       <c r="M4" t="n">
         <v>352.1966550070906</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799512</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566228</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799512</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529552</v>
+        <v>27.69423234529555</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566225</v>
+        <v>83.36969466566208</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070904</v>
+        <v>352.19665500709</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799512</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566228</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J11" t="n">
         <v>75.78032220706916</v>
@@ -28117,46 +28117,46 @@
         <v>5.226507866178949</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>45.26954801765824</v>
       </c>
       <c r="M11" t="n">
-        <v>15.18968547299741</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>20.74607087118019</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>16.51388544985567</v>
+        <v>112.3353858055405</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.3776479086704</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R11" t="n">
-        <v>200.355857185282</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="12">
@@ -28217,25 +28217,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901286</v>
       </c>
       <c r="T12" t="n">
-        <v>185.0493323188934</v>
+        <v>116.0055744815704</v>
       </c>
       <c r="U12" t="n">
-        <v>138.2877477348484</v>
+        <v>197.7687544276271</v>
       </c>
       <c r="V12" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W12" t="n">
-        <v>167.7646770919937</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X12" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.4443796490077</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="13">
@@ -28263,10 +28263,10 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H13" t="n">
-        <v>200.355857185282</v>
+        <v>198.0736824539189</v>
       </c>
       <c r="I13" t="n">
-        <v>200.355857185282</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J13" t="n">
         <v>119.8654670400798</v>
@@ -28275,46 +28275,46 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3049547715885</v>
+        <v>130.3049547715886</v>
       </c>
       <c r="M13" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814037</v>
       </c>
       <c r="N13" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O13" t="n">
-        <v>135.670798048706</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P13" t="n">
-        <v>57.83856215320002</v>
+        <v>156.778468638218</v>
       </c>
       <c r="Q13" t="n">
-        <v>187.7695571000027</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J14" t="n">
-        <v>85.11411388054944</v>
+        <v>174.7202286920872</v>
       </c>
       <c r="K14" t="n">
         <v>5.226507866178949</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.18968547299741</v>
+        <v>15.18968547299752</v>
       </c>
       <c r="N14" t="n">
-        <v>20.74607087118019</v>
+        <v>20.74607087118031</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.39547932052248</v>
+        <v>22.7292709940028</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.3776479086704</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R14" t="n">
         <v>194.140471641135</v>
       </c>
       <c r="S14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174.1633916400102</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>49.79838577886939</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H15" t="n">
         <v>125.6745619188949</v>
@@ -28454,25 +28454,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901286</v>
       </c>
       <c r="T15" t="n">
-        <v>116.0055744815705</v>
+        <v>116.0055744815704</v>
       </c>
       <c r="U15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W15" t="n">
-        <v>200.355857185282</v>
+        <v>197.7687544276271</v>
       </c>
       <c r="X15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="16">
@@ -28485,13 +28485,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,7 +28500,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I16" t="n">
         <v>164.6938248359117</v>
@@ -28509,49 +28509,49 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3550587809063</v>
+        <v>70.49449186317707</v>
       </c>
       <c r="L16" t="n">
         <v>31.36504828657057</v>
       </c>
       <c r="M16" t="n">
-        <v>121.0450606500391</v>
+        <v>123.3272353814037</v>
       </c>
       <c r="N16" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O16" t="n">
-        <v>36.73089156368813</v>
+        <v>135.6707980487062</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382179</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="C17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="D17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="E17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="F17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="I17" t="n">
         <v>240.5549466909089</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.39547932052248</v>
+        <v>112.3353858055405</v>
       </c>
       <c r="Q17" t="n">
         <v>88.43774142365251</v>
@@ -28612,25 +28612,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
-        <v>326.188065863424</v>
+        <v>263.5506141399832</v>
       </c>
       <c r="T17" t="n">
-        <v>258.7166926726132</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="W17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="X17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
     </row>
     <row r="18">
@@ -28649,7 +28649,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>72.88766535478177</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551178</v>
       </c>
       <c r="S18" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T18" t="n">
-        <v>127.7992113345847</v>
+        <v>133.8629190448705</v>
       </c>
       <c r="U18" t="n">
-        <v>138.2877477348484</v>
+        <v>138.2877477348483</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>141.7090144303842</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>118.3730079544527</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="I20" t="n">
         <v>240.5549466909089</v>
@@ -28831,16 +28831,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>15.18968547299741</v>
+        <v>15.18968547299752</v>
       </c>
       <c r="N20" t="n">
-        <v>20.74607087118019</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.333791673480242</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.39547932052248</v>
+        <v>34.50824860910199</v>
       </c>
       <c r="Q20" t="n">
         <v>88.43774142365251</v>
@@ -28849,7 +28849,7 @@
         <v>194.140471641135</v>
       </c>
       <c r="S20" t="n">
-        <v>326.188065863424</v>
+        <v>326.1880658634241</v>
       </c>
       <c r="T20" t="n">
         <v>222.4142379110366</v>
@@ -28858,16 +28858,16 @@
         <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
     </row>
     <row r="21">
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>84.68130220779588</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,7 +28895,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H21" t="n">
-        <v>26.73465543387699</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
         <v>107.1460820356304</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551176</v>
       </c>
       <c r="S21" t="n">
         <v>191.4735447740309</v>
@@ -28934,19 +28934,19 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348483</v>
       </c>
       <c r="V21" t="n">
-        <v>159.5663589936844</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>167.7646770919937</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>118.3730079544527</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490076</v>
       </c>
     </row>
     <row r="22">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="I23" t="n">
         <v>240.5549466909089</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>45.26954801765909</v>
       </c>
       <c r="P23" t="n">
         <v>13.39547932052248</v>
@@ -29083,10 +29083,10 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R23" t="n">
-        <v>239.4100196587929</v>
+        <v>293.0803781261534</v>
       </c>
       <c r="S23" t="n">
-        <v>326.188065863424</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
         <v>222.4142379110366</v>
@@ -29098,13 +29098,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652331</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>88.57824503934802</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29132,7 +29132,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H24" t="n">
-        <v>44.59199999717708</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I24" t="n">
         <v>107.1460820356304</v>
@@ -29159,25 +29159,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551148</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901256</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9454809665884</v>
+        <v>116.0055744815701</v>
       </c>
       <c r="U24" t="n">
-        <v>138.2877477348484</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>153.5026512833982</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7646770919937</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>82.77646033952976</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V27" t="n">
-        <v>55.71645027259936</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="28">
@@ -29439,7 +29439,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>197.091490349882</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29460,10 +29460,10 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L28" t="n">
-        <v>212.8607143456135</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M28" t="n">
-        <v>24.38732889638567</v>
+        <v>106.2761919006723</v>
       </c>
       <c r="N28" t="n">
         <v>15.71034539069795</v>
@@ -29472,7 +29472,7 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
-        <v>57.83856215320002</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7738576957197</v>
@@ -29481,25 +29481,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456146</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>55.59465235463011</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29609,7 +29609,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
         <v>51.87880489469028</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8607143456135</v>
+        <v>138.1655353984391</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29685,10 +29685,10 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H31" t="n">
-        <v>212.8607143456135</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8607143456135</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J31" t="n">
         <v>119.8654670400798</v>
@@ -29700,10 +29700,10 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M31" t="n">
-        <v>24.38732889638567</v>
+        <v>175.2114874431919</v>
       </c>
       <c r="N31" t="n">
-        <v>157.3711041809003</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O31" t="n">
         <v>36.73089156368813</v>
@@ -29712,31 +29712,31 @@
         <v>57.83856215320002</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7738576957197</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="R31" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="32">
@@ -29770,7 +29770,7 @@
         <v>212.8607143456134</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8607143456141</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K32" t="n">
         <v>212.8607143456134</v>
@@ -29779,7 +29779,7 @@
         <v>212.8607143456134</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.860714345615</v>
       </c>
       <c r="N32" t="n">
         <v>212.8607143456134</v>
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7382922638873</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
         <v>191.4735447740309</v>
@@ -29882,16 +29882,16 @@
         <v>212.8607143456134</v>
       </c>
       <c r="U33" t="n">
+        <v>3.837645377909325</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>212.8607143456134</v>
-      </c>
-      <c r="V33" t="n">
-        <v>212.8607143456134</v>
-      </c>
-      <c r="W33" t="n">
-        <v>212.8607143456134</v>
-      </c>
-      <c r="X33" t="n">
-        <v>36.50356861400505</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8607143456134</v>
@@ -29934,16 +29934,16 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L34" t="n">
-        <v>71.12569452835517</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M34" t="n">
         <v>24.38732889638567</v>
       </c>
       <c r="N34" t="n">
+        <v>66.82283950493263</v>
+      </c>
+      <c r="O34" t="n">
         <v>212.8607143456134</v>
-      </c>
-      <c r="O34" t="n">
-        <v>36.73089156368813</v>
       </c>
       <c r="P34" t="n">
         <v>57.83856215320002</v>
@@ -29952,7 +29952,7 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1920160450731</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S34" t="n">
         <v>212.8607143456134</v>
@@ -30004,10 +30004,10 @@
         <v>240.554946690909</v>
       </c>
       <c r="I35" t="n">
+        <v>240.5549466909089</v>
+      </c>
+      <c r="J35" t="n">
         <v>240.554946690909</v>
-      </c>
-      <c r="J35" t="n">
-        <v>75.78032220706916</v>
       </c>
       <c r="K35" t="n">
         <v>240.554946690909</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>240.554946690909</v>
+        <v>80.65469500418912</v>
       </c>
       <c r="P35" t="n">
         <v>240.554946690909</v>
@@ -30037,7 +30037,7 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T35" t="n">
-        <v>227.2886107081564</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U35" t="n">
         <v>240.554946690909</v>
@@ -30065,13 +30065,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>168.5321983982955</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30110,25 +30110,25 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R36" t="n">
-        <v>19.80762550046869</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W36" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30147,10 +30147,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>212.3102313057771</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>191.9877229870848</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30195,7 +30195,7 @@
         <v>235.3458201896853</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7389474107024</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U37" t="n">
         <v>240.554946690909</v>
@@ -30244,31 +30244,31 @@
         <v>240.554946690909</v>
       </c>
       <c r="J38" t="n">
-        <v>75.78032220706916</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K38" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="L38" t="n">
-        <v>240.554946690909</v>
+        <v>35.81171959129126</v>
       </c>
       <c r="M38" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="O38" t="n">
-        <v>158.5630777012526</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P38" t="n">
         <v>13.39547932052248</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.43774142365251</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R38" t="n">
-        <v>194.140471641135</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S38" t="n">
         <v>240.554946690909</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>154.7495003849962</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
-        <v>17.61014286640213</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W39" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30411,7 +30411,7 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M40" t="n">
-        <v>128.8778405972879</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N40" t="n">
         <v>15.71034539069795</v>
@@ -30420,7 +30420,7 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P40" t="n">
-        <v>57.83856215320002</v>
+        <v>162.3290738541022</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7738576957197</v>
@@ -30484,16 +30484,16 @@
         <v>75.78032220706913</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5549466909089</v>
+        <v>5.226507866178885</v>
       </c>
       <c r="L41" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="M41" t="n">
-        <v>203.4060531141506</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>27.92163120084281</v>
       </c>
       <c r="O41" t="n">
         <v>240.5549466909089</v>
@@ -30502,7 +30502,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.43774142365245</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="R41" t="n">
         <v>194.140471641135</v>
@@ -30511,7 +30511,7 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4142379110366</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U41" t="n">
         <v>240.5549466909089</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30545,10 +30545,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7382922638873</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285826</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>101.6424994249348</v>
+        <v>81.41459515964456</v>
       </c>
       <c r="T42" t="n">
         <v>214.9454809665884</v>
@@ -30596,10 +30596,10 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30633,7 +30633,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H43" t="n">
-        <v>240.5549466909089</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I43" t="n">
         <v>164.6938248359117</v>
@@ -30657,7 +30657,7 @@
         <v>36.73089156368809</v>
       </c>
       <c r="P43" t="n">
-        <v>87.55147461201122</v>
+        <v>162.3290738541024</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7738576957196</v>
@@ -30718,7 +30718,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J44" t="n">
-        <v>75.78032220706913</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K44" t="n">
         <v>240.5549466909089</v>
@@ -30727,28 +30727,28 @@
         <v>240.5549466909089</v>
       </c>
       <c r="M44" t="n">
-        <v>33.14813906702172</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5549466909089</v>
+        <v>53.95242837116368</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5549466909089</v>
+        <v>13.3954793205224</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="R44" t="n">
-        <v>194.140471641135</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2481593784061</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
         <v>240.5549466909089</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7382922638873</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285826</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3278900205298</v>
@@ -30830,7 +30830,7 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
-        <v>43.48234891117187</v>
+        <v>103.3392465088546</v>
       </c>
       <c r="V45" t="n">
         <v>240.5549466909089</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G46" t="n">
         <v>168.6954829817093</v>
@@ -30882,7 +30882,7 @@
         <v>66.41515229588836</v>
       </c>
       <c r="L46" t="n">
-        <v>119.0395607072664</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M46" t="n">
         <v>24.38732889638563</v>
@@ -30906,7 +30906,7 @@
         <v>235.3458201896853</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5549466909089</v>
+        <v>226.6013946391426</v>
       </c>
       <c r="U46" t="n">
         <v>240.5549466909089</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.05450173165866</v>
+        <v>94.3240497493169</v>
       </c>
       <c r="M11" t="n">
-        <v>98.9399064850179</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N11" t="n">
-        <v>98.9399064850179</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O11" t="n">
         <v>36.55404110068636</v>
       </c>
       <c r="P11" t="n">
-        <v>3.118406129333196</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544147008</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.36607756419615</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>98.9399064850179</v>
+        <v>94.94233450582537</v>
       </c>
       <c r="M12" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="O12" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="P12" t="n">
-        <v>55.57625694162908</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35559,10 +35559,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.57850973646437</v>
+        <v>32.29633500510119</v>
       </c>
       <c r="I13" t="n">
-        <v>35.66203234937035</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.99569940428309</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.333791673480277</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>49.05450173165866</v>
       </c>
       <c r="M14" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N14" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="O14" t="n">
         <v>36.55404110068636</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>9.333791673480327</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L15" t="n">
-        <v>98.9399064850179</v>
+        <v>68.84099665492546</v>
       </c>
       <c r="M15" t="n">
-        <v>9.267167734103484</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N15" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172179</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.8986762133095</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.67971597305686</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.57850973646437</v>
+        <v>34.57850973646417</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>98.9399064850179</v>
+        <v>4.079339567288679</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>96.65773175365347</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="P16" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>98.9399064850179</v>
+        <v>36.30245476157709</v>
       </c>
       <c r="T17" t="n">
-        <v>36.30245476157663</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.967093256081228</v>
+        <v>8.967093256081114</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.36607756419615</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="M18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>9.267167734103571</v>
       </c>
       <c r="O18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="P18" t="n">
-        <v>55.57625694162908</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,16 +36127,16 @@
         <v>49.05450173165866</v>
       </c>
       <c r="M20" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N20" t="n">
-        <v>98.9399064850179</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O20" t="n">
-        <v>45.8878327741666</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>21.11276928857951</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.967093256081114</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>98.9399064850179</v>
+        <v>68.84099665492546</v>
       </c>
       <c r="N21" t="n">
-        <v>94.94233450582527</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="O21" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>78.19383561383771</v>
       </c>
       <c r="O23" t="n">
-        <v>36.55404110068636</v>
+        <v>81.82358911834545</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,10 +36379,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>45.26954801765789</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="S23" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="N24" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501831</v>
       </c>
       <c r="O24" t="n">
-        <v>98.9399064850179</v>
+        <v>68.84099665492603</v>
       </c>
       <c r="P24" t="n">
-        <v>55.57625694162908</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>199.465235025091</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219609</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447844</v>
+        <v>18.72024270447841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41534913765695</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36756,10 +36756,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.4956660590429</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.88886300428663</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0221521924134</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>207.6342064794345</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772733</v>
       </c>
       <c r="M29" t="n">
         <v>296.6109353576339</v>
@@ -36850,10 +36850,10 @@
         <v>199.465235025091</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219609</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447843</v>
+        <v>18.72024270447841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36981,10 +36981,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.08336689679579</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.16688950970178</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.8241585468063</v>
       </c>
       <c r="N31" t="n">
-        <v>141.6607587902023</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08685664989379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.080392138545</v>
+        <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
         <v>207.6342064794345</v>
@@ -37075,7 +37075,7 @@
         <v>261.9152160772721</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6109353576339</v>
+        <v>296.6109353576355</v>
       </c>
       <c r="N32" t="n">
         <v>291.0545499594512</v>
@@ -37084,13 +37084,13 @@
         <v>249.4147554462998</v>
       </c>
       <c r="P32" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250909</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4229729219609</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447841</v>
+        <v>18.72024270447838</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>39.7606462417846</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>197.1503689549155</v>
+        <v>51.11249411423469</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1298227819253</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.668698300540308</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>164.7746244838398</v>
       </c>
       <c r="K35" t="n">
         <v>235.32843882473</v>
@@ -37318,7 +37318,7 @@
         <v>78.19383561383771</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1089877915953</v>
+        <v>117.2087361048755</v>
       </c>
       <c r="P35" t="n">
         <v>227.1594673703865</v>
@@ -37333,7 +37333,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4.874372797119788</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37443,10 +37443,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>67.12758105506643</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>50.31158177485983</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.81599928020659</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>164.7746244838398</v>
       </c>
       <c r="K38" t="n">
         <v>235.32843882473</v>
       </c>
       <c r="L38" t="n">
-        <v>289.6094484225677</v>
+        <v>84.86622132294993</v>
       </c>
       <c r="M38" t="n">
-        <v>324.3051677029295</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N38" t="n">
         <v>318.7487823047467</v>
       </c>
       <c r="O38" t="n">
-        <v>195.117118801939</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>152.1172052672565</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>46.41447504977396</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250288</v>
+        <v>13.30678731250291</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987234</v>
+        <v>18.14070877987237</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>104.4905117009022</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>289.6094484225677</v>
       </c>
       <c r="M41" t="n">
-        <v>287.1562741261711</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N41" t="n">
-        <v>78.19383561383779</v>
+        <v>106.1154668146806</v>
       </c>
       <c r="O41" t="n">
         <v>277.1089877915954</v>
@@ -37798,7 +37798,7 @@
         <v>227.1594673703865</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.1172052672565</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37807,7 +37807,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.77759924209123</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>29.71291245881124</v>
+        <v>104.4905117009025</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.7746244838398</v>
       </c>
       <c r="K44" t="n">
         <v>235.32843882473</v>
@@ -38023,28 +38023,28 @@
         <v>289.6094484225677</v>
       </c>
       <c r="M44" t="n">
-        <v>116.8983600790423</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N44" t="n">
         <v>78.19383561383779</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1089877915954</v>
+        <v>90.50646947185012</v>
       </c>
       <c r="P44" t="n">
-        <v>227.1594673703865</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.4144750497739</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.30678731250284</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987229</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.6280644724623</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67451242069592</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.81599928020654</v>
+        <v>2.862447228440199</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
